--- a/SourceDataTables/Fig2c.xlsx
+++ b/SourceDataTables/Fig2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="215">
   <si>
     <t>Gene</t>
   </si>
@@ -678,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -688,14 +688,54 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,18 +754,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="21" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -736,7 +776,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -747,7 +787,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -758,7 +798,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -769,7 +809,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -780,7 +820,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -791,7 +831,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -802,7 +842,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -813,7 +853,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -824,7 +864,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -835,7 +875,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -846,7 +886,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -857,7 +897,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -868,7 +908,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -879,7 +919,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -890,7 +930,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -901,7 +941,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -912,7 +952,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -923,7 +963,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -934,7 +974,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -945,7 +985,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -956,7 +996,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -967,7 +1007,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -978,7 +1018,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -989,7 +1029,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1000,7 +1040,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1011,7 +1051,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1022,7 +1062,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1033,7 +1073,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1044,7 +1084,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1055,7 +1095,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1066,7 +1106,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1077,7 +1117,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1088,7 +1128,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1099,7 +1139,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1110,7 +1150,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1121,7 +1161,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1132,7 +1172,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1143,7 +1183,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1154,7 +1194,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1165,7 +1205,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1176,7 +1216,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="21" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1187,7 +1227,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="21" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1198,7 +1238,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="21" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1209,7 +1249,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1220,7 +1260,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="21" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1231,7 +1271,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1242,7 +1282,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1253,7 +1293,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="21" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1264,7 +1304,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="21" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1275,7 +1315,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="21" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1286,7 +1326,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="21" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1297,7 +1337,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="21" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1308,7 +1348,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1319,7 +1359,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="21" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1330,7 +1370,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1341,7 +1381,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="21" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1352,7 +1392,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="21" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1363,7 +1403,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="21" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1374,7 +1414,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1385,7 +1425,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="21" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1396,7 +1436,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1407,7 +1447,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="21" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1418,7 +1458,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1429,7 +1469,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1440,7 +1480,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="21" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1451,7 +1491,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1462,7 +1502,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="21" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1473,7 +1513,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1484,7 +1524,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1495,7 +1535,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="21" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1506,7 +1546,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="21" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1517,7 +1557,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1528,7 +1568,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="21" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1539,7 +1579,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="21" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1550,7 +1590,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="21" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1561,7 +1601,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1572,7 +1612,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1583,7 +1623,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="21" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1594,7 +1634,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="21" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1605,7 +1645,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="21" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1616,7 +1656,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="21" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1627,7 +1667,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1638,7 +1678,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="21" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1649,7 +1689,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="21" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1660,7 +1700,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="21" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1671,7 +1711,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="21" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1682,7 +1722,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="21" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1693,7 +1733,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="21" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1704,7 +1744,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="21" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1715,7 +1755,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="21" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1726,7 +1766,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="21" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1737,7 +1777,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="21" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1748,7 +1788,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="21" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1759,7 +1799,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="21" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1770,7 +1810,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1781,7 +1821,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="21" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1792,7 +1832,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1803,7 +1843,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="21" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1814,7 +1854,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="21" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1825,7 +1865,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1836,7 +1876,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="21" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1847,7 +1887,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="21" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1858,7 +1898,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1869,7 +1909,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1880,7 +1920,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1891,7 +1931,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1902,7 +1942,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="21" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1913,7 +1953,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="21" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1924,7 +1964,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="21" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1935,7 +1975,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="21" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1946,7 +1986,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="21" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -1957,7 +1997,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="21" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -1968,7 +2008,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="21" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -1979,7 +2019,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="21" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -1990,7 +2030,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2001,7 +2041,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2012,7 +2052,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="21" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2023,7 +2063,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="21" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2034,7 +2074,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2045,7 +2085,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2056,7 +2096,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2067,7 +2107,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="21" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2078,7 +2118,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="21" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2089,7 +2129,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="21" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2100,7 +2140,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="21" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2111,7 +2151,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="21" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2122,7 +2162,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="21" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2133,7 +2173,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="21" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2144,7 +2184,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="21" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2155,7 +2195,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2166,7 +2206,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2177,7 +2217,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2188,7 +2228,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="21" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2199,7 +2239,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="21" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2210,7 +2250,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2221,7 +2261,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="21" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2232,7 +2272,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="21" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2243,7 +2283,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="21" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2254,7 +2294,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="21" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2265,7 +2305,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="21" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2276,7 +2316,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2287,7 +2327,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -2298,7 +2338,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -2309,7 +2349,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -2320,7 +2360,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="21" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -2331,7 +2371,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -2342,7 +2382,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -2353,7 +2393,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="21" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -2364,7 +2404,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -2375,7 +2415,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -2386,7 +2426,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -2397,7 +2437,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -2408,7 +2448,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -2419,7 +2459,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -2430,7 +2470,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -2441,7 +2481,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="21" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -2452,7 +2492,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -2463,7 +2503,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -2474,7 +2514,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -2485,7 +2525,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -2496,7 +2536,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -2507,7 +2547,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -2518,7 +2558,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -2529,7 +2569,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -2540,7 +2580,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -2551,7 +2591,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -2562,7 +2602,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -2573,7 +2613,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -2584,7 +2624,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -2595,7 +2635,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="21" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -2606,7 +2646,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="21" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -2617,7 +2657,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -2628,7 +2668,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="21" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -2639,7 +2679,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="21" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -2650,7 +2690,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="21" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -2661,7 +2701,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="21" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -2672,7 +2712,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -2683,7 +2723,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="21" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -2694,7 +2734,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -2705,7 +2745,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="21" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -2716,7 +2756,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="21" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -2727,7 +2767,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="21" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -2738,7 +2778,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="21" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -2749,7 +2789,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -2760,7 +2800,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="21" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -2771,7 +2811,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="21" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -2782,7 +2822,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="21" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -2793,7 +2833,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -2804,7 +2844,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -2815,7 +2855,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -2826,7 +2866,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="21" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -2837,7 +2877,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -2848,7 +2888,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="21" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -2859,7 +2899,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="21" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -2870,7 +2910,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="21" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -2881,7 +2921,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="21" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -2892,7 +2932,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="21" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -2903,7 +2943,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -2914,7 +2954,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="21" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -2925,7 +2965,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -2936,7 +2976,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="21" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -2947,7 +2987,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="21" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -2958,7 +2998,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="21" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -2969,7 +3009,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="21" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -2980,7 +3020,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="21" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -2991,7 +3031,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="21" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3002,7 +3042,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="21" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3013,7 +3053,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3024,7 +3064,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="21" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3035,7 +3075,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="21" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3046,7 +3086,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="21" t="s">
         <v>212</v>
       </c>
       <c r="B213">

--- a/SourceDataTables/Fig2c.xlsx
+++ b/SourceDataTables/Fig2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2365" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="215">
   <si>
     <t>Gene</t>
   </si>
@@ -678,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -708,11 +708,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -736,6 +740,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,18 +762,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -776,7 +784,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -787,7 +795,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -798,7 +806,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="25" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -809,7 +817,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -820,7 +828,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -831,7 +839,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -842,7 +850,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -853,7 +861,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -864,7 +872,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -875,7 +883,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -886,7 +894,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -897,7 +905,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -908,7 +916,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B15">
@@ -919,7 +927,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B16">
@@ -930,7 +938,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B17">
@@ -941,7 +949,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B18">
@@ -952,7 +960,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B19">
@@ -963,7 +971,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B20">
@@ -974,7 +982,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B21">
@@ -985,7 +993,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B22">
@@ -996,7 +1004,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B23">
@@ -1007,7 +1015,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B24">
@@ -1018,7 +1026,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
@@ -1029,7 +1037,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B26">
@@ -1040,7 +1048,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B27">
@@ -1051,7 +1059,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B28">
@@ -1062,7 +1070,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B29">
@@ -1073,7 +1081,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B30">
@@ -1084,7 +1092,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B31">
@@ -1095,7 +1103,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B32">
@@ -1106,7 +1114,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B33">
@@ -1117,7 +1125,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B34">
@@ -1128,7 +1136,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B35">
@@ -1139,7 +1147,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B36">
@@ -1150,7 +1158,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B37">
@@ -1161,7 +1169,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B38">
@@ -1172,7 +1180,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B39">
@@ -1183,7 +1191,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B40">
@@ -1194,7 +1202,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B41">
@@ -1205,7 +1213,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B42">
@@ -1216,7 +1224,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B43">
@@ -1227,7 +1235,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B44">
@@ -1238,7 +1246,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B45">
@@ -1249,7 +1257,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B46">
@@ -1260,7 +1268,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B47">
@@ -1271,7 +1279,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B48">
@@ -1282,7 +1290,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B49">
@@ -1293,7 +1301,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B50">
@@ -1304,7 +1312,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B51">
@@ -1315,7 +1323,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B52">
@@ -1326,7 +1334,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B53">
@@ -1337,7 +1345,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B54">
@@ -1348,7 +1356,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B55">
@@ -1359,7 +1367,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B56">
@@ -1370,7 +1378,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B57">
@@ -1381,7 +1389,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B58">
@@ -1392,7 +1400,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B59">
@@ -1403,7 +1411,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B60">
@@ -1414,7 +1422,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B61">
@@ -1425,7 +1433,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B62">
@@ -1436,7 +1444,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B63">
@@ -1447,7 +1455,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B64">
@@ -1458,7 +1466,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B65">
@@ -1469,7 +1477,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B66">
@@ -1480,7 +1488,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B67">
@@ -1491,7 +1499,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B68">
@@ -1502,7 +1510,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B69">
@@ -1513,7 +1521,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B70">
@@ -1524,7 +1532,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B71">
@@ -1535,7 +1543,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B72">
@@ -1546,7 +1554,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B73">
@@ -1557,7 +1565,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B74">
@@ -1568,7 +1576,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B75">
@@ -1579,7 +1587,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B76">
@@ -1590,7 +1598,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B77">
@@ -1601,7 +1609,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B78">
@@ -1612,7 +1620,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B79">
@@ -1623,7 +1631,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B80">
@@ -1634,7 +1642,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B81">
@@ -1645,7 +1653,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B82">
@@ -1656,7 +1664,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B83">
@@ -1667,7 +1675,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B84">
@@ -1678,7 +1686,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B85">
@@ -1689,7 +1697,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B86">
@@ -1700,7 +1708,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B87">
@@ -1711,7 +1719,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B88">
@@ -1722,7 +1730,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B89">
@@ -1733,7 +1741,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B90">
@@ -1744,7 +1752,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B91">
@@ -1755,7 +1763,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B92">
@@ -1766,7 +1774,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B93">
@@ -1777,7 +1785,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B94">
@@ -1788,7 +1796,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B95">
@@ -1799,7 +1807,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B96">
@@ -1810,7 +1818,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B97">
@@ -1821,7 +1829,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B98">
@@ -1832,7 +1840,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B99">
@@ -1843,7 +1851,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B100">
@@ -1854,7 +1862,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B101">
@@ -1865,7 +1873,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B102">
@@ -1876,7 +1884,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B103">
@@ -1887,7 +1895,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="21" t="s">
+      <c r="A104" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B104">
@@ -1898,7 +1906,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B105">
@@ -1909,7 +1917,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="21" t="s">
+      <c r="A106" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B106">
@@ -1920,7 +1928,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B107">
@@ -1931,7 +1939,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="21" t="s">
+      <c r="A108" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B108">
@@ -1942,7 +1950,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B109">
@@ -1953,7 +1961,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B110">
@@ -1964,7 +1972,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B111">
@@ -1975,7 +1983,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B112">
@@ -1986,7 +1994,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B113">
@@ -1997,7 +2005,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B114">
@@ -2008,7 +2016,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B115">
@@ -2019,7 +2027,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="21" t="s">
+      <c r="A116" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B116">
@@ -2030,7 +2038,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B117">
@@ -2041,7 +2049,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B118">
@@ -2052,7 +2060,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B119">
@@ -2063,7 +2071,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B120">
@@ -2074,7 +2082,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B121">
@@ -2085,7 +2093,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B122">
@@ -2096,7 +2104,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B123">
@@ -2107,7 +2115,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B124">
@@ -2118,7 +2126,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B125">
@@ -2129,7 +2137,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B126">
@@ -2140,7 +2148,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B127">
@@ -2151,7 +2159,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B128">
@@ -2162,7 +2170,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B129">
@@ -2173,7 +2181,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B130">
@@ -2184,7 +2192,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B131">
@@ -2195,7 +2203,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B132">
@@ -2206,7 +2214,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B133">
@@ -2217,7 +2225,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B134">
@@ -2228,7 +2236,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B135">
@@ -2239,7 +2247,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="25" t="s">
         <v>135</v>
       </c>
       <c r="B136">
@@ -2250,7 +2258,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="21" t="s">
+      <c r="A137" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B137">
@@ -2261,7 +2269,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B138">
@@ -2272,7 +2280,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B139">
@@ -2283,7 +2291,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B140">
@@ -2294,7 +2302,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B141">
@@ -2305,7 +2313,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="21" t="s">
+      <c r="A142" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B142">
@@ -2316,7 +2324,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B143">
@@ -2327,7 +2335,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="21" t="s">
+      <c r="A144" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B144">
@@ -2338,7 +2346,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B145">
@@ -2349,7 +2357,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B146">
@@ -2360,7 +2368,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B147">
@@ -2371,7 +2379,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B148">
@@ -2382,7 +2390,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B149">
@@ -2393,7 +2401,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B150">
@@ -2404,7 +2412,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="21" t="s">
+      <c r="A151" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B151">
@@ -2415,7 +2423,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="21" t="s">
+      <c r="A152" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B152">
@@ -2426,7 +2434,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="21" t="s">
+      <c r="A153" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B153">
@@ -2437,7 +2445,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="21" t="s">
+      <c r="A154" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B154">
@@ -2448,7 +2456,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="21" t="s">
+      <c r="A155" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B155">
@@ -2459,7 +2467,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="21" t="s">
+      <c r="A156" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B156">
@@ -2470,7 +2478,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="21" t="s">
+      <c r="A157" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B157">
@@ -2481,7 +2489,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B158">
@@ -2492,7 +2500,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B159">
@@ -2503,7 +2511,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B160">
@@ -2514,7 +2522,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="21" t="s">
+      <c r="A161" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B161">
@@ -2525,7 +2533,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="21" t="s">
+      <c r="A162" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B162">
@@ -2536,7 +2544,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B163">
@@ -2547,7 +2555,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B164">
@@ -2558,7 +2566,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B165">
@@ -2569,7 +2577,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="21" t="s">
+      <c r="A166" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B166">
@@ -2580,7 +2588,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="21" t="s">
+      <c r="A167" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B167">
@@ -2591,7 +2599,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="21" t="s">
+      <c r="A168" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B168">
@@ -2602,7 +2610,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="21" t="s">
+      <c r="A169" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B169">
@@ -2613,7 +2621,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="21" t="s">
+      <c r="A170" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B170">
@@ -2624,7 +2632,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="21" t="s">
+      <c r="A171" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B171">
@@ -2635,7 +2643,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="21" t="s">
+      <c r="A172" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B172">
@@ -2646,7 +2654,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="21" t="s">
+      <c r="A173" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B173">
@@ -2657,7 +2665,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="21" t="s">
+      <c r="A174" s="25" t="s">
         <v>173</v>
       </c>
       <c r="B174">
@@ -2668,7 +2676,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="21" t="s">
+      <c r="A175" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B175">
@@ -2679,7 +2687,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="21" t="s">
+      <c r="A176" s="25" t="s">
         <v>175</v>
       </c>
       <c r="B176">
@@ -2690,7 +2698,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="21" t="s">
+      <c r="A177" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B177">
@@ -2701,7 +2709,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="21" t="s">
+      <c r="A178" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B178">
@@ -2712,7 +2720,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="21" t="s">
+      <c r="A179" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B179">
@@ -2723,7 +2731,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="21" t="s">
+      <c r="A180" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B180">
@@ -2734,7 +2742,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="21" t="s">
+      <c r="A181" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B181">
@@ -2745,7 +2753,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="21" t="s">
+      <c r="A182" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B182">
@@ -2756,7 +2764,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B183">
@@ -2767,7 +2775,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="21" t="s">
+      <c r="A184" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B184">
@@ -2778,7 +2786,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="21" t="s">
+      <c r="A185" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B185">
@@ -2789,7 +2797,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="21" t="s">
+      <c r="A186" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B186">
@@ -2800,7 +2808,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="21" t="s">
+      <c r="A187" s="25" t="s">
         <v>186</v>
       </c>
       <c r="B187">
@@ -2811,7 +2819,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="21" t="s">
+      <c r="A188" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B188">
@@ -2822,7 +2830,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="21" t="s">
+      <c r="A189" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B189">
@@ -2833,7 +2841,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="21" t="s">
+      <c r="A190" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B190">
@@ -2844,7 +2852,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="21" t="s">
+      <c r="A191" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B191">
@@ -2855,7 +2863,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="21" t="s">
+      <c r="A192" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B192">
@@ -2866,7 +2874,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="21" t="s">
+      <c r="A193" s="25" t="s">
         <v>192</v>
       </c>
       <c r="B193">
@@ -2877,7 +2885,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="21" t="s">
+      <c r="A194" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B194">
@@ -2888,7 +2896,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="21" t="s">
+      <c r="A195" s="25" t="s">
         <v>194</v>
       </c>
       <c r="B195">
@@ -2899,7 +2907,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="21" t="s">
+      <c r="A196" s="25" t="s">
         <v>195</v>
       </c>
       <c r="B196">
@@ -2910,7 +2918,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="21" t="s">
+      <c r="A197" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B197">
@@ -2921,7 +2929,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="21" t="s">
+      <c r="A198" s="25" t="s">
         <v>197</v>
       </c>
       <c r="B198">
@@ -2932,7 +2940,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="21" t="s">
+      <c r="A199" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B199">
@@ -2943,7 +2951,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="21" t="s">
+      <c r="A200" s="25" t="s">
         <v>199</v>
       </c>
       <c r="B200">
@@ -2954,7 +2962,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="21" t="s">
+      <c r="A201" s="25" t="s">
         <v>200</v>
       </c>
       <c r="B201">
@@ -2965,7 +2973,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="21" t="s">
+      <c r="A202" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B202">
@@ -2976,7 +2984,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B203">
@@ -2987,7 +2995,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="21" t="s">
+      <c r="A204" s="25" t="s">
         <v>203</v>
       </c>
       <c r="B204">
@@ -2998,7 +3006,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="21" t="s">
+      <c r="A205" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B205">
@@ -3009,7 +3017,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="21" t="s">
+      <c r="A206" s="25" t="s">
         <v>205</v>
       </c>
       <c r="B206">
@@ -3020,7 +3028,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="21" t="s">
+      <c r="A207" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B207">
@@ -3031,7 +3039,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="21" t="s">
+      <c r="A208" s="25" t="s">
         <v>207</v>
       </c>
       <c r="B208">
@@ -3042,7 +3050,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="21" t="s">
+      <c r="A209" s="25" t="s">
         <v>208</v>
       </c>
       <c r="B209">
@@ -3053,7 +3061,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="21" t="s">
+      <c r="A210" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B210">
@@ -3064,7 +3072,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="21" t="s">
+      <c r="A211" s="25" t="s">
         <v>210</v>
       </c>
       <c r="B211">
@@ -3075,7 +3083,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="21" t="s">
+      <c r="A212" s="25" t="s">
         <v>211</v>
       </c>
       <c r="B212">
@@ -3086,7 +3094,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="21" t="s">
+      <c r="A213" s="25" t="s">
         <v>212</v>
       </c>
       <c r="B213">

--- a/SourceDataTables/Fig2c.xlsx
+++ b/SourceDataTables/Fig2c.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="215">
   <si>
     <t>Gene</t>
   </si>
@@ -24,634 +24,634 @@
     <t>OLIG2</t>
   </si>
   <si>
+    <t>BASP1</t>
+  </si>
+  <si>
+    <t>PNPLA5</t>
+  </si>
+  <si>
+    <t>GPRIN1</t>
+  </si>
+  <si>
+    <t>AKAP14</t>
+  </si>
+  <si>
+    <t>C1orf216</t>
+  </si>
+  <si>
+    <t>ADAM29</t>
+  </si>
+  <si>
+    <t>BEST3</t>
+  </si>
+  <si>
+    <t>EFNB3</t>
+  </si>
+  <si>
+    <t>RCAN2</t>
+  </si>
+  <si>
+    <t>CACNG3</t>
+  </si>
+  <si>
+    <t>MAGEC3</t>
+  </si>
+  <si>
+    <t>DSCAM</t>
+  </si>
+  <si>
+    <t>APC2</t>
+  </si>
+  <si>
+    <t>CDH2</t>
+  </si>
+  <si>
+    <t>TSPAN19</t>
+  </si>
+  <si>
+    <t>COL9A3</t>
+  </si>
+  <si>
+    <t>DCT</t>
+  </si>
+  <si>
+    <t>C1orf64</t>
+  </si>
+  <si>
+    <t>RTN3</t>
+  </si>
+  <si>
+    <t>ZCCHC12</t>
+  </si>
+  <si>
+    <t>DLX2</t>
+  </si>
+  <si>
+    <t>KIAA1024L</t>
+  </si>
+  <si>
+    <t>NPM2</t>
+  </si>
+  <si>
+    <t>PNLDC1</t>
+  </si>
+  <si>
+    <t>CDH18</t>
+  </si>
+  <si>
+    <t>C3orf22</t>
+  </si>
+  <si>
+    <t>C9orf131</t>
+  </si>
+  <si>
+    <t>WDR49</t>
+  </si>
+  <si>
+    <t>CACNG2</t>
+  </si>
+  <si>
+    <t>ADD2</t>
+  </si>
+  <si>
+    <t>LRRN2</t>
+  </si>
+  <si>
+    <t>SLC9A6</t>
+  </si>
+  <si>
+    <t>CAP2</t>
+  </si>
+  <si>
+    <t>HCN4</t>
+  </si>
+  <si>
+    <t>SNX31</t>
+  </si>
+  <si>
+    <t>ACOT7</t>
+  </si>
+  <si>
+    <t>C1orf87</t>
+  </si>
+  <si>
+    <t>OTOS</t>
+  </si>
+  <si>
+    <t>DGKB</t>
+  </si>
+  <si>
+    <t>RASL10A</t>
+  </si>
+  <si>
+    <t>DMRT2</t>
+  </si>
+  <si>
+    <t>KHDRBS3</t>
+  </si>
+  <si>
+    <t>KLF1</t>
+  </si>
+  <si>
+    <t>CGREF1</t>
+  </si>
+  <si>
+    <t>CSPG5</t>
+  </si>
+  <si>
+    <t>DLL3</t>
+  </si>
+  <si>
+    <t>PNMA2</t>
+  </si>
+  <si>
+    <t>DMRT1</t>
+  </si>
+  <si>
+    <t>SLC32A1</t>
+  </si>
+  <si>
+    <t>FUT9</t>
+  </si>
+  <si>
+    <t>CRHR1</t>
+  </si>
+  <si>
+    <t>ADCY1</t>
+  </si>
+  <si>
+    <t>EEF1A2</t>
+  </si>
+  <si>
+    <t>FAM81A</t>
+  </si>
+  <si>
+    <t>COL11A1</t>
+  </si>
+  <si>
+    <t>EFHB</t>
+  </si>
+  <si>
+    <t>PRICKLE2</t>
+  </si>
+  <si>
+    <t>RFPL3</t>
+  </si>
+  <si>
+    <t>PRUNE2</t>
+  </si>
+  <si>
+    <t>LINGO2</t>
+  </si>
+  <si>
+    <t>KRT222</t>
+  </si>
+  <si>
+    <t>PTTG2</t>
+  </si>
+  <si>
+    <t>CHL1</t>
+  </si>
+  <si>
+    <t>ADCY2</t>
+  </si>
+  <si>
+    <t>NCAN</t>
+  </si>
+  <si>
+    <t>GJB6</t>
+  </si>
+  <si>
+    <t>NXPH2</t>
+  </si>
+  <si>
+    <t>SYT2</t>
+  </si>
+  <si>
+    <t>CPLX2</t>
+  </si>
+  <si>
+    <t>CYP46A1</t>
+  </si>
+  <si>
+    <t>SLC22A7</t>
+  </si>
+  <si>
+    <t>TMEM74</t>
+  </si>
+  <si>
+    <t>NUDT10</t>
+  </si>
+  <si>
+    <t>LRRC38</t>
+  </si>
+  <si>
+    <t>ACTL7A</t>
+  </si>
+  <si>
+    <t>UPP2</t>
+  </si>
+  <si>
+    <t>NKAIN2</t>
+  </si>
+  <si>
+    <t>DAB1</t>
+  </si>
+  <si>
+    <t>SMYD1</t>
+  </si>
+  <si>
+    <t>WASF3</t>
+  </si>
+  <si>
+    <t>GPR75</t>
+  </si>
+  <si>
+    <t>MLLT11</t>
+  </si>
+  <si>
+    <t>SDS</t>
+  </si>
+  <si>
+    <t>CCDC85B</t>
+  </si>
+  <si>
+    <t>LIX1</t>
+  </si>
+  <si>
+    <t>VAX1</t>
+  </si>
+  <si>
+    <t>VSTM2L</t>
+  </si>
+  <si>
+    <t>ADAP1</t>
+  </si>
+  <si>
+    <t>LECT1</t>
+  </si>
+  <si>
+    <t>ADRA1B</t>
+  </si>
+  <si>
+    <t>RAPGEF4</t>
+  </si>
+  <si>
+    <t>GPR139</t>
+  </si>
+  <si>
+    <t>HSF2BP</t>
+  </si>
+  <si>
+    <t>DPYSL2</t>
+  </si>
+  <si>
+    <t>GALNTL5</t>
+  </si>
+  <si>
+    <t>CHGA</t>
+  </si>
+  <si>
+    <t>CHGB</t>
+  </si>
+  <si>
+    <t>TMEM170B</t>
+  </si>
+  <si>
+    <t>PTPRT</t>
+  </si>
+  <si>
+    <t>TTLL8</t>
+  </si>
+  <si>
+    <t>FAM78B</t>
+  </si>
+  <si>
+    <t>CHI3L1</t>
+  </si>
+  <si>
+    <t>SOX21</t>
+  </si>
+  <si>
+    <t>LZTS1</t>
+  </si>
+  <si>
+    <t>DUSP8</t>
+  </si>
+  <si>
+    <t>AMZ1</t>
+  </si>
+  <si>
+    <t>PADI2</t>
+  </si>
+  <si>
+    <t>CDH9</t>
+  </si>
+  <si>
+    <t>PRRT2</t>
+  </si>
+  <si>
+    <t>NXPH3</t>
+  </si>
+  <si>
+    <t>DRD1</t>
+  </si>
+  <si>
+    <t>GPR45</t>
+  </si>
+  <si>
+    <t>HRH3</t>
+  </si>
+  <si>
+    <t>SLITRK4</t>
+  </si>
+  <si>
+    <t>GALNT13</t>
+  </si>
+  <si>
+    <t>CNGB1</t>
+  </si>
+  <si>
+    <t>ADIG</t>
+  </si>
+  <si>
+    <t>POU6F2</t>
+  </si>
+  <si>
+    <t>C2orf73</t>
+  </si>
+  <si>
+    <t>ADORA1</t>
+  </si>
+  <si>
+    <t>GLB1L3</t>
+  </si>
+  <si>
+    <t>ZNRF4</t>
+  </si>
+  <si>
+    <t>RFTN2</t>
+  </si>
+  <si>
+    <t>CCDC151</t>
+  </si>
+  <si>
+    <t>COL11A2</t>
+  </si>
+  <si>
+    <t>CIDEA</t>
+  </si>
+  <si>
+    <t>NR0B1</t>
+  </si>
+  <si>
+    <t>ENPP6</t>
+  </si>
+  <si>
+    <t>ADCY8</t>
+  </si>
+  <si>
+    <t>ADAMTS18</t>
+  </si>
+  <si>
+    <t>CYP17A1</t>
+  </si>
+  <si>
+    <t>CHRM4</t>
+  </si>
+  <si>
+    <t>CRYAB</t>
+  </si>
+  <si>
+    <t>CRH</t>
+  </si>
+  <si>
+    <t>IGSF11</t>
+  </si>
+  <si>
+    <t>TDRD9</t>
+  </si>
+  <si>
+    <t>EXD1</t>
+  </si>
+  <si>
+    <t>CHRM1</t>
+  </si>
+  <si>
+    <t>CHRNB3</t>
+  </si>
+  <si>
+    <t>FRMPD2</t>
+  </si>
+  <si>
+    <t>CGB2</t>
+  </si>
+  <si>
+    <t>LMTK3</t>
+  </si>
+  <si>
+    <t>CSMD2</t>
+  </si>
+  <si>
+    <t>XKR4</t>
+  </si>
+  <si>
+    <t>FMNL2</t>
+  </si>
+  <si>
+    <t>BMPER</t>
+  </si>
+  <si>
+    <t>CPNE9</t>
+  </si>
+  <si>
+    <t>ADRA1D</t>
+  </si>
+  <si>
+    <t>SLITRK1</t>
+  </si>
+  <si>
+    <t>SORCS1</t>
+  </si>
+  <si>
+    <t>PNMA5</t>
+  </si>
+  <si>
+    <t>TMEM174</t>
+  </si>
+  <si>
+    <t>CSAG1</t>
+  </si>
+  <si>
+    <t>TSGA13</t>
+  </si>
+  <si>
+    <t>SLC26A9</t>
+  </si>
+  <si>
+    <t>KNCN</t>
+  </si>
+  <si>
+    <t>CPNE4</t>
+  </si>
+  <si>
+    <t>CLU</t>
+  </si>
+  <si>
+    <t>CKB</t>
+  </si>
+  <si>
+    <t>SLC5A11</t>
+  </si>
+  <si>
+    <t>DIRC1</t>
+  </si>
+  <si>
+    <t>SCAMP5</t>
+  </si>
+  <si>
+    <t>CMTM5</t>
+  </si>
+  <si>
+    <t>C8orf34</t>
+  </si>
+  <si>
+    <t>ANKRD13B</t>
+  </si>
+  <si>
+    <t>SLC26A8</t>
+  </si>
+  <si>
+    <t>LYPD1</t>
+  </si>
+  <si>
+    <t>MED12L</t>
+  </si>
+  <si>
+    <t>WDR17</t>
+  </si>
+  <si>
+    <t>AGAP2</t>
+  </si>
+  <si>
+    <t>AGAP3</t>
+  </si>
+  <si>
+    <t>ADCYAP1R1</t>
+  </si>
+  <si>
+    <t>RXFP2</t>
+  </si>
+  <si>
+    <t>C10orf90</t>
+  </si>
+  <si>
+    <t>USH1C</t>
+  </si>
+  <si>
+    <t>BTBD16</t>
+  </si>
+  <si>
+    <t>RNF157</t>
+  </si>
+  <si>
+    <t>EDIL3</t>
+  </si>
+  <si>
+    <t>TSPAN5</t>
+  </si>
+  <si>
+    <t>FGFBP3</t>
+  </si>
+  <si>
+    <t>C17orf77</t>
+  </si>
+  <si>
+    <t>CABP7</t>
+  </si>
+  <si>
+    <t>CRYGA</t>
+  </si>
+  <si>
+    <t>CDH13</t>
+  </si>
+  <si>
+    <t>SGK2</t>
+  </si>
+  <si>
     <t>ATP8A1</t>
   </si>
   <si>
-    <t>CHADL</t>
-  </si>
-  <si>
-    <t>XKR4</t>
-  </si>
-  <si>
-    <t>CYP17A1</t>
-  </si>
-  <si>
-    <t>ZNF648</t>
-  </si>
-  <si>
-    <t>HSF2BP</t>
-  </si>
-  <si>
-    <t>TSPAN19</t>
-  </si>
-  <si>
-    <t>EFNA3</t>
-  </si>
-  <si>
-    <t>RCAN2</t>
-  </si>
-  <si>
-    <t>CACNG3</t>
-  </si>
-  <si>
-    <t>SLITRK4</t>
-  </si>
-  <si>
-    <t>DRP2</t>
-  </si>
-  <si>
-    <t>APC2</t>
-  </si>
-  <si>
-    <t>CDH2</t>
-  </si>
-  <si>
-    <t>GLT1D1</t>
-  </si>
-  <si>
-    <t>TRIM43</t>
+    <t>HORMAD2</t>
+  </si>
+  <si>
+    <t>RTP1</t>
+  </si>
+  <si>
+    <t>ATP9A</t>
+  </si>
+  <si>
+    <t>C3orf49</t>
+  </si>
+  <si>
+    <t>CBLN4</t>
+  </si>
+  <si>
+    <t>SLAIN1</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>ABI2</t>
+  </si>
+  <si>
+    <t>SP7</t>
+  </si>
+  <si>
+    <t>MORN4</t>
+  </si>
+  <si>
+    <t>FAM187B</t>
+  </si>
+  <si>
+    <t>PAQR4</t>
+  </si>
+  <si>
+    <t>ROPN1B</t>
+  </si>
+  <si>
+    <t>LONRF2</t>
+  </si>
+  <si>
+    <t>DIO2</t>
+  </si>
+  <si>
+    <t>CHN1</t>
+  </si>
+  <si>
+    <t>WIF1</t>
+  </si>
+  <si>
+    <t>CCDC27</t>
   </si>
   <si>
     <t>ZNF676</t>
   </si>
   <si>
-    <t>SHISA4</t>
-  </si>
-  <si>
-    <t>RTN3</t>
-  </si>
-  <si>
-    <t>SNX31</t>
-  </si>
-  <si>
-    <t>DLX1</t>
-  </si>
-  <si>
-    <t>KIAA1024L</t>
-  </si>
-  <si>
-    <t>NPM2</t>
-  </si>
-  <si>
-    <t>HDGFL1</t>
-  </si>
-  <si>
-    <t>CDH18</t>
-  </si>
-  <si>
-    <t>ROPN1B</t>
-  </si>
-  <si>
-    <t>ARID3C</t>
-  </si>
-  <si>
-    <t>EFHB</t>
-  </si>
-  <si>
-    <t>CACNG2</t>
-  </si>
-  <si>
-    <t>MORN4</t>
-  </si>
-  <si>
-    <t>OLFM1</t>
-  </si>
-  <si>
-    <t>LRRN2</t>
-  </si>
-  <si>
-    <t>C1orf61</t>
-  </si>
-  <si>
-    <t>HCN4</t>
-  </si>
-  <si>
-    <t>BMPER</t>
-  </si>
-  <si>
-    <t>CHRM5</t>
-  </si>
-  <si>
-    <t>C1orf216</t>
-  </si>
-  <si>
-    <t>SMYD1</t>
-  </si>
-  <si>
-    <t>PATE1</t>
-  </si>
-  <si>
-    <t>DPYSL4</t>
-  </si>
-  <si>
-    <t>RASL10A</t>
-  </si>
-  <si>
-    <t>DMRT2</t>
-  </si>
-  <si>
-    <t>KHDRBS3</t>
-  </si>
-  <si>
-    <t>KLF1</t>
-  </si>
-  <si>
-    <t>CGREF1</t>
-  </si>
-  <si>
-    <t>CSPG5</t>
-  </si>
-  <si>
-    <t>DLL3</t>
-  </si>
-  <si>
-    <t>DNM1</t>
-  </si>
-  <si>
-    <t>TCEAL2</t>
-  </si>
-  <si>
-    <t>PNMA2</t>
-  </si>
-  <si>
-    <t>CRHBP</t>
-  </si>
-  <si>
-    <t>FUT9</t>
-  </si>
-  <si>
-    <t>NR0B1</t>
-  </si>
-  <si>
-    <t>LRFN5</t>
-  </si>
-  <si>
-    <t>ICA1L</t>
-  </si>
-  <si>
-    <t>FAM19A4</t>
-  </si>
-  <si>
-    <t>SPTSSB</t>
-  </si>
-  <si>
-    <t>NRG3</t>
-  </si>
-  <si>
-    <t>ZNF483</t>
-  </si>
-  <si>
-    <t>CYP4A11</t>
-  </si>
-  <si>
-    <t>ANKRD13B</t>
-  </si>
-  <si>
-    <t>RFPL3</t>
-  </si>
-  <si>
-    <t>PTTG2</t>
-  </si>
-  <si>
-    <t>ARPP19</t>
-  </si>
-  <si>
-    <t>CMTM4</t>
-  </si>
-  <si>
-    <t>ADCY2</t>
-  </si>
-  <si>
-    <t>NXPH3</t>
-  </si>
-  <si>
-    <t>C1orf87</t>
-  </si>
-  <si>
-    <t>WASF3</t>
-  </si>
-  <si>
-    <t>CPLX1</t>
-  </si>
-  <si>
-    <t>CYP46A1</t>
-  </si>
-  <si>
-    <t>AMZ1</t>
-  </si>
-  <si>
-    <t>ARX</t>
-  </si>
-  <si>
-    <t>CNP</t>
-  </si>
-  <si>
-    <t>SLC22A7</t>
-  </si>
-  <si>
-    <t>FBXO41</t>
-  </si>
-  <si>
-    <t>PNLDC1</t>
-  </si>
-  <si>
-    <t>CYP26A1</t>
-  </si>
-  <si>
-    <t>PNPLA5</t>
-  </si>
-  <si>
-    <t>GJB6</t>
-  </si>
-  <si>
-    <t>RUNDC3A</t>
-  </si>
-  <si>
-    <t>GPR75</t>
-  </si>
-  <si>
-    <t>RAB40B</t>
-  </si>
-  <si>
-    <t>SDS</t>
-  </si>
-  <si>
-    <t>FREM3</t>
-  </si>
-  <si>
-    <t>CCDC85B</t>
-  </si>
-  <si>
-    <t>NKAIN4</t>
-  </si>
-  <si>
-    <t>VAX1</t>
-  </si>
-  <si>
-    <t>ADAP1</t>
-  </si>
-  <si>
-    <t>RTN4RL1</t>
-  </si>
-  <si>
-    <t>LECT1</t>
-  </si>
-  <si>
-    <t>PAQR4</t>
-  </si>
-  <si>
-    <t>TPPP</t>
-  </si>
-  <si>
-    <t>DPP6</t>
-  </si>
-  <si>
-    <t>C6orf118</t>
-  </si>
-  <si>
-    <t>KIF3A</t>
-  </si>
-  <si>
-    <t>CHGA</t>
-  </si>
-  <si>
-    <t>TMEM170B</t>
-  </si>
-  <si>
-    <t>CIT</t>
-  </si>
-  <si>
-    <t>CABP7</t>
-  </si>
-  <si>
-    <t>MANEAL</t>
-  </si>
-  <si>
-    <t>IL1RAPL1</t>
-  </si>
-  <si>
-    <t>CHI3L1</t>
-  </si>
-  <si>
-    <t>FAM107A</t>
-  </si>
-  <si>
-    <t>DTNA</t>
-  </si>
-  <si>
-    <t>ATP6V0E2</t>
-  </si>
-  <si>
-    <t>CHN1</t>
-  </si>
-  <si>
-    <t>CDH9</t>
-  </si>
-  <si>
-    <t>NXPH4</t>
-  </si>
-  <si>
-    <t>PRRT2</t>
-  </si>
-  <si>
-    <t>DPYSL2</t>
-  </si>
-  <si>
-    <t>NXPH2</t>
-  </si>
-  <si>
-    <t>GPR45</t>
-  </si>
-  <si>
-    <t>C9orf131</t>
-  </si>
-  <si>
-    <t>RNF157</t>
-  </si>
-  <si>
-    <t>KRT222</t>
-  </si>
-  <si>
-    <t>CTNNA2</t>
-  </si>
-  <si>
-    <t>CHRM1</t>
-  </si>
-  <si>
-    <t>NEU4</t>
-  </si>
-  <si>
-    <t>CAPSL</t>
-  </si>
-  <si>
-    <t>PHF21B</t>
+    <t>TBR1</t>
+  </si>
+  <si>
+    <t>AGBL1</t>
+  </si>
+  <si>
+    <t>KCNH8</t>
   </si>
   <si>
     <t>TTC9B</t>
   </si>
   <si>
-    <t>COL11A1</t>
-  </si>
-  <si>
-    <t>CKMT1B</t>
-  </si>
-  <si>
-    <t>RFTN2</t>
-  </si>
-  <si>
-    <t>OSBPL6</t>
-  </si>
-  <si>
-    <t>APLNR</t>
-  </si>
-  <si>
-    <t>TRAM1L1</t>
-  </si>
-  <si>
-    <t>CHRNA4</t>
-  </si>
-  <si>
-    <t>ADAMTS16</t>
-  </si>
-  <si>
-    <t>CSAG1</t>
-  </si>
-  <si>
-    <t>CHRM3</t>
-  </si>
-  <si>
-    <t>SIRPA</t>
-  </si>
-  <si>
-    <t>MAGEC3</t>
-  </si>
-  <si>
-    <t>CX3CR1</t>
-  </si>
-  <si>
-    <t>SLAIN1</t>
-  </si>
-  <si>
-    <t>OTUD7A</t>
-  </si>
-  <si>
-    <t>STX1B</t>
-  </si>
-  <si>
-    <t>SLC2A13</t>
-  </si>
-  <si>
-    <t>CRYM</t>
-  </si>
-  <si>
-    <t>PALM2</t>
-  </si>
-  <si>
-    <t>SLC22A9</t>
-  </si>
-  <si>
-    <t>LMTK3</t>
-  </si>
-  <si>
-    <t>CSMD2</t>
-  </si>
-  <si>
-    <t>KLHL32</t>
-  </si>
-  <si>
-    <t>GALNTL5</t>
-  </si>
-  <si>
-    <t>WDR49</t>
-  </si>
-  <si>
-    <t>FAM81A</t>
-  </si>
-  <si>
-    <t>TMEM132B</t>
-  </si>
-  <si>
-    <t>GALNT13</t>
-  </si>
-  <si>
-    <t>SORCS1</t>
-  </si>
-  <si>
-    <t>C5orf49</t>
-  </si>
-  <si>
-    <t>PRUNE2</t>
-  </si>
-  <si>
-    <t>GPRASP2</t>
-  </si>
-  <si>
-    <t>TSGA13</t>
-  </si>
-  <si>
-    <t>CCDC27</t>
-  </si>
-  <si>
     <t>C2orf50</t>
-  </si>
-  <si>
-    <t>ADD2</t>
-  </si>
-  <si>
-    <t>SLC26A9</t>
-  </si>
-  <si>
-    <t>CKB</t>
-  </si>
-  <si>
-    <t>SLC22A12</t>
-  </si>
-  <si>
-    <t>EEF1A2</t>
-  </si>
-  <si>
-    <t>PHACTR3</t>
-  </si>
-  <si>
-    <t>CMTM5</t>
-  </si>
-  <si>
-    <t>SEZ6</t>
-  </si>
-  <si>
-    <t>C8orf34</t>
-  </si>
-  <si>
-    <t>SLC26A8</t>
-  </si>
-  <si>
-    <t>OLIG1</t>
-  </si>
-  <si>
-    <t>MED12L</t>
-  </si>
-  <si>
-    <t>WDR17</t>
-  </si>
-  <si>
-    <t>AGAP2</t>
-  </si>
-  <si>
-    <t>AGAP3</t>
-  </si>
-  <si>
-    <t>ANO4</t>
-  </si>
-  <si>
-    <t>GPR62</t>
-  </si>
-  <si>
-    <t>USH1C</t>
-  </si>
-  <si>
-    <t>C10orf90</t>
-  </si>
-  <si>
-    <t>CCDC85A</t>
-  </si>
-  <si>
-    <t>EDIL3</t>
-  </si>
-  <si>
-    <t>TSPAN5</t>
-  </si>
-  <si>
-    <t>FRMPD2</t>
-  </si>
-  <si>
-    <t>MGAT5B</t>
-  </si>
-  <si>
-    <t>TTLL9</t>
-  </si>
-  <si>
-    <t>CRYAB</t>
-  </si>
-  <si>
-    <t>CDH13</t>
-  </si>
-  <si>
-    <t>SGK2</t>
-  </si>
-  <si>
-    <t>PRG3</t>
-  </si>
-  <si>
-    <t>AIFM3</t>
-  </si>
-  <si>
-    <t>FAM131A</t>
-  </si>
-  <si>
-    <t>ATP9A</t>
-  </si>
-  <si>
-    <t>RTP1</t>
-  </si>
-  <si>
-    <t>SLC32A1</t>
-  </si>
-  <si>
-    <t>TEX26</t>
-  </si>
-  <si>
-    <t>CCDC105</t>
-  </si>
-  <si>
-    <t>ABI2</t>
-  </si>
-  <si>
-    <t>TPH2</t>
-  </si>
-  <si>
-    <t>BTBD16</t>
-  </si>
-  <si>
-    <t>ZNRF4</t>
-  </si>
-  <si>
-    <t>AGBL1</t>
-  </si>
-  <si>
-    <t>CPNE9</t>
-  </si>
-  <si>
-    <t>TTLL8</t>
-  </si>
-  <si>
-    <t>FAM9C</t>
-  </si>
-  <si>
-    <t>WIF1</t>
-  </si>
-  <si>
-    <t>CELF3</t>
-  </si>
-  <si>
-    <t>SLC35F3</t>
-  </si>
-  <si>
-    <t>DCC</t>
-  </si>
-  <si>
-    <t>ADCY1</t>
-  </si>
-  <si>
-    <t>NIPA1</t>
-  </si>
-  <si>
-    <t>CPNE4</t>
-  </si>
-  <si>
-    <t>DACT3</t>
-  </si>
-  <si>
-    <t>MDH1B</t>
   </si>
   <si>
     <t>Human_PC1_loading</t>
@@ -678,7 +678,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -692,31 +692,11 @@
     <border/>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -724,26 +704,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,2349 +716,2349 @@
   <dimension ref="A1:C213"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.42578125" customWidth="true"/>
     <col min="2" max="2" width="19.28515625" customWidth="true"/>
     <col min="3" max="3" width="18.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.488353417864859</v>
+        <v>-1.4882842473898599</v>
       </c>
       <c r="C2">
         <v>0.33983551999278455</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.394179102442896</v>
+        <v>0.39433351727572907</v>
       </c>
       <c r="C3">
         <v>-0.51755389108673489</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.53084939193102176</v>
+        <v>0.53019198274605817</v>
       </c>
       <c r="C4">
         <v>0.9513658815294378</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.24146223014335125</v>
+        <v>-0.24115892980983997</v>
       </c>
       <c r="C5">
         <v>0.74185973660688453</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.53897894990135198</v>
+        <v>0.53897412140974998</v>
       </c>
       <c r="C6">
         <v>0.73938258606416407</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.92841313837810568</v>
+        <v>0.92814130584421151</v>
       </c>
       <c r="C7">
         <v>1.0996469346334254</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.53602245679989613</v>
+        <v>0.53587782118772154</v>
       </c>
       <c r="C8">
         <v>-0.087733698053214709</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.21408437381403173</v>
+        <v>0.21478715226081152</v>
       </c>
       <c r="C9">
         <v>0.91895089369756044</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.3427912669796032</v>
+        <v>1.3426117612011739</v>
       </c>
       <c r="C10">
         <v>1.5686738036409678</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.1694562280340355</v>
+        <v>1.1693903389878904</v>
       </c>
       <c r="C11">
         <v>1.3401235902547135</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>-1.2691875839554134</v>
+        <v>-1.2686059161911309</v>
       </c>
       <c r="C12">
         <v>-1.4952745124270805</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.508325816675083</v>
+        <v>1.5080121994279072</v>
       </c>
       <c r="C13">
         <v>1.355198926008724</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.9641546639636045</v>
+        <v>0.96347132081664677</v>
       </c>
       <c r="C14">
         <v>-1.2992721559054978</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.2288416615646491</v>
+        <v>1.228796865764235</v>
       </c>
       <c r="C15">
         <v>1.2581693461601724</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.3793070209988128</v>
+        <v>0.37853709416551334</v>
       </c>
       <c r="C16">
         <v>-0.62948291747376006</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.95213985633566256</v>
+        <v>0.95132289691689997</v>
       </c>
       <c r="C17">
         <v>1.1132829320044073</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.77474269511015903</v>
+        <v>0.77531458987670576</v>
       </c>
       <c r="C18">
         <v>1.3690303645355049</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.35784461182616434</v>
+        <v>0.35725272676323883</v>
       </c>
       <c r="C19">
         <v>-0.31141405257553845</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>-0.83881739143749456</v>
+        <v>-0.83837334282480158</v>
       </c>
       <c r="C20">
         <v>-1.6320267237461394</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>-0.88976267007099785</v>
+        <v>-0.89020560989479647</v>
       </c>
       <c r="C21">
         <v>-0.61300969075243017</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>-0.25508597458278504</v>
+        <v>-0.25444979514830129</v>
       </c>
       <c r="C22">
         <v>1.297201418686907</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.69203534286869794</v>
+        <v>0.69260587442415988</v>
       </c>
       <c r="C23">
         <v>0.51597238268054879</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.32892330935045055</v>
+        <v>0.32965684392090061</v>
       </c>
       <c r="C24">
         <v>-0.54760442652449448</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.4435179047632338</v>
+        <v>1.4433186565204899</v>
       </c>
       <c r="C25">
         <v>0.40263976172263138</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>-1.5523453933808165</v>
+        <v>-1.5521689877606091</v>
       </c>
       <c r="C26">
         <v>0.48741636566902741</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>-0.51362745267695586</v>
+        <v>-0.51318475964316579</v>
       </c>
       <c r="C27">
         <v>-1.1208021150312673</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.095285577067687977</v>
+        <v>0.093811963970713799</v>
       </c>
       <c r="C28">
         <v>-1.1273177425306375</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>-0.63188027711118078</v>
+        <v>-0.63160095248020831</v>
       </c>
       <c r="C29">
         <v>0.11970138823915139</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>-1.8331120295180188</v>
+        <v>-1.8328314066142264</v>
       </c>
       <c r="C30">
         <v>-1.9891150674351306</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>-1.8529855169881819</v>
+        <v>-1.8530533271678342</v>
       </c>
       <c r="C31">
         <v>-0.036594697740112696</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.014045140046171764</v>
+        <v>0.013600389032762731</v>
       </c>
       <c r="C32">
         <v>1.0388077896209216</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.40918764374058025</v>
+        <v>0.40986110916915686</v>
       </c>
       <c r="C33">
         <v>-0.19002649336986852</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.83571189286465919</v>
+        <v>0.8356681332136896</v>
       </c>
       <c r="C34">
         <v>1.5880491173415194</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>-1.2586599450505134</v>
+        <v>-1.2593015099193097</v>
       </c>
       <c r="C35">
         <v>-0.13920687458911857</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.89381932809652787</v>
+        <v>0.89358534890180874</v>
       </c>
       <c r="C36">
         <v>-0.42965976686147345</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="25" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.71877460300743989</v>
+        <v>0.71814888881300754</v>
       </c>
       <c r="C37">
         <v>-0.52226226373094731</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.9545078532743595</v>
+        <v>0.95404397150307108</v>
       </c>
       <c r="C38">
         <v>0.91154640489162519</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>-0.24245675725474003</v>
+        <v>-0.24239661114483804</v>
       </c>
       <c r="C39">
         <v>-1.0858450076245383</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.26430258105703625</v>
+        <v>0.26352515049196257</v>
       </c>
       <c r="C40">
         <v>-0.23299611895919473</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>-2.0511540079793664</v>
+        <v>-2.0516647195200219</v>
       </c>
       <c r="C41">
         <v>-1.3311217484605249</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>-0.95623957880860633</v>
+        <v>-0.95612370005718905</v>
       </c>
       <c r="C42">
         <v>0.6422864244931108</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.87017139204591887</v>
+        <v>0.87002394619020984</v>
       </c>
       <c r="C43">
         <v>0.45792096892110074</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>-1.7879817440824688</v>
+        <v>-1.7877625917502715</v>
       </c>
       <c r="C44">
         <v>-0.52560621354074</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="25" t="s">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.47048372254007953</v>
+        <v>0.47112645478465282</v>
       </c>
       <c r="C45">
         <v>-1.3304578530603783</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.10614618270188719</v>
+        <v>0.1064991563638276</v>
       </c>
       <c r="C46">
         <v>1.1211874475616943</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.1027025086114426</v>
+        <v>1.1030525004022107</v>
       </c>
       <c r="C47">
         <v>1.044208352386665</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>-0.2703262290746361</v>
+        <v>-0.26963259842447923</v>
       </c>
       <c r="C48">
         <v>-0.784117235303328</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>-2.1615990831144152</v>
+        <v>-2.1617253384062636</v>
       </c>
       <c r="C49">
         <v>-1.4893662109779184</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>-2.182809685046414</v>
+        <v>-2.1829904455147617</v>
       </c>
       <c r="C50">
         <v>-1.3245162294291133</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="25" t="s">
+      <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>-1.6601586522494012</v>
+        <v>-1.6597445639295765</v>
       </c>
       <c r="C51">
         <v>-0.79596366267803476</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.4345574776000947</v>
+        <v>1.4343297963194479</v>
       </c>
       <c r="C52">
         <v>1.3814646814601081</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>-1.6850307722673159</v>
+        <v>-1.6850575291152625</v>
       </c>
       <c r="C53">
         <v>-1.1138578359434754</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.3436405074926985</v>
+        <v>1.3433382396470699</v>
       </c>
       <c r="C54">
         <v>1.4149977109622887</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>-0.53480299655157959</v>
+        <v>-0.53501911605608943</v>
       </c>
       <c r="C55">
         <v>-1.2293493667025397</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>-0.14265769943189335</v>
+        <v>-0.14187911019433733</v>
       </c>
       <c r="C56">
         <v>0.60900646071550835</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.97448608074233511</v>
+        <v>0.97427799055691444</v>
       </c>
       <c r="C57">
         <v>-0.3466787672601388</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>-0.70601366669494403</v>
+        <v>-0.70613620335046212</v>
       </c>
       <c r="C58">
         <v>-1.0738124577860959</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>-1.4827369142083464</v>
+        <v>-1.4835011151082278</v>
       </c>
       <c r="C59">
         <v>-1.4208943519410238</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>-1.4991523659457413</v>
+        <v>-1.4989273076536569</v>
       </c>
       <c r="C60">
         <v>-0.7514202295328718</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.1190846753213357</v>
+        <v>1.1193023571585929</v>
       </c>
       <c r="C61">
         <v>1.1935424393530918</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="25" t="s">
+      <c r="A62" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B62">
-        <v>-1.2524532517354008</v>
+        <v>-1.2513411372905257</v>
       </c>
       <c r="C62">
         <v>-1.4634062620555948</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.16233994088142478</v>
+        <v>0.16284179112223016</v>
       </c>
       <c r="C63">
         <v>-0.28032251788724377</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.49072412575728863</v>
+        <v>0.49045511825317978</v>
       </c>
       <c r="C64">
         <v>1.4205529831132502</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>-1.5047709540409322</v>
+        <v>-1.5042377787214583</v>
       </c>
       <c r="C65">
         <v>-1.1727198956279488</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.56269362834860437</v>
+        <v>0.56244861626458187</v>
       </c>
       <c r="C66">
         <v>1.0300307755797036</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.2853516874581719</v>
+        <v>1.2855474534438729</v>
       </c>
       <c r="C67">
         <v>0.97703222598325901</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.65574149174517793</v>
+        <v>0.65651356944092554</v>
       </c>
       <c r="C68">
         <v>-0.93077873387373078</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B69">
-        <v>-1.3411691086917064</v>
+        <v>-1.3410858978342532</v>
       </c>
       <c r="C69">
         <v>-1.3496222581424693</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="25" t="s">
+      <c r="A70" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B70">
-        <v>-1.7034929000358721</v>
+        <v>-1.7045832142485133</v>
       </c>
       <c r="C70">
         <v>-1.5966858337754277</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B71">
-        <v>-0.80067118248371416</v>
+        <v>-0.80057036027014616</v>
       </c>
       <c r="C71">
         <v>1.2397222286574214</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="25" t="s">
+      <c r="A72" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.14436153059773993</v>
+        <v>0.14432185050766444</v>
       </c>
       <c r="C72">
         <v>0.03638609789552779</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="25" t="s">
+      <c r="A73" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B73">
-        <v>-0.011314440438722574</v>
+        <v>-0.011428625751155528</v>
       </c>
       <c r="C73">
         <v>-0.77788557249619239</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="25" t="s">
+      <c r="A74" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1.9703421844983868</v>
+        <v>-1.9708101501853508</v>
       </c>
       <c r="C74">
         <v>-1.5856079558298999</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B75">
-        <v>-1.1720392356245748</v>
+        <v>-1.1721975621293779</v>
       </c>
       <c r="C75">
         <v>0.8713505556879485</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1.4482085135005809</v>
+        <v>1.4481449874220831</v>
       </c>
       <c r="C76">
         <v>1.0430549554808404</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77">
-        <v>-2.174262995519102</v>
+        <v>-2.1747494801110507</v>
       </c>
       <c r="C77">
         <v>-1.1317350893204281</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B78">
-        <v>-0.34892989439162753</v>
+        <v>-0.34908890643605561</v>
       </c>
       <c r="C78">
         <v>-1.5310929892066454</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.14381408893939929</v>
+        <v>0.1434100622371349</v>
       </c>
       <c r="C79">
         <v>-0.21581021532195777</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B80">
-        <v>-0.45028656347669521</v>
+        <v>-0.45190521195731681</v>
       </c>
       <c r="C80">
         <v>0.41961759099611257</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="25" t="s">
+      <c r="A81" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B81">
-        <v>-1.8063110749622444</v>
+        <v>-1.8069097875674149</v>
       </c>
       <c r="C81">
         <v>-0.35435109227915179</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="25" t="s">
+      <c r="A82" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.16263513250510689</v>
+        <v>0.1639739737830096</v>
       </c>
       <c r="C82">
         <v>-0.44741657601303908</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="5" t="s">
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.14898404889394018</v>
+        <v>0.1491113234816295</v>
       </c>
       <c r="C83">
         <v>-0.32464767937032557</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1.5287283940515268</v>
+        <v>1.5288763168943578</v>
       </c>
       <c r="C84">
         <v>1.4287677940696732</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="25" t="s">
+      <c r="A85" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1.2481620670536455</v>
+        <v>1.2479225340787115</v>
       </c>
       <c r="C85">
         <v>0.98052740148601281</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="25" t="s">
+      <c r="A86" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.35063338024690505</v>
+        <v>0.35106311109746646</v>
       </c>
       <c r="C86">
         <v>-0.03533331619430477</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1.2102585711773028</v>
+        <v>1.2102332945350596</v>
       </c>
       <c r="C87">
         <v>1.5600768697112655</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.95733358535428315</v>
+        <v>0.95722992962072051</v>
       </c>
       <c r="C88">
         <v>0.93610510221073173</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.84321925725275426</v>
+        <v>0.84364297757346596</v>
       </c>
       <c r="C89">
         <v>1.3295371826608968</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="25" t="s">
+      <c r="A90" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.66642460040395379</v>
+        <v>0.66715492131652754</v>
       </c>
       <c r="C90">
         <v>0.94474853665774672</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.92049489295951592</v>
+        <v>0.92104900104036058</v>
       </c>
       <c r="C91">
         <v>1.4156196506468248</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="25" t="s">
+      <c r="A92" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.7980447345654621</v>
+        <v>0.79836101543559523</v>
       </c>
       <c r="C92">
         <v>0.80897596486545431</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.71211627966078306</v>
+        <v>0.71224217506914256</v>
       </c>
       <c r="C93">
         <v>1.3085152330175733</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="25" t="s">
+      <c r="A94" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B94">
-        <v>-0.09355119249467643</v>
+        <v>-0.094333775103621773</v>
       </c>
       <c r="C94">
         <v>-1.7158464676050496</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="5" t="s">
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.1638178142574842</v>
+        <v>1.163757997469093</v>
       </c>
       <c r="C95">
         <v>1.4347157083125248</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="25" t="s">
+      <c r="A96" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B96">
-        <v>-1.3129263381460146</v>
+        <v>-1.3141078225413658</v>
       </c>
       <c r="C96">
         <v>-0.080397463184796958</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B97">
-        <v>-1.5889532812323457</v>
+        <v>-1.5888624487792202</v>
       </c>
       <c r="C97">
         <v>-1.1698251056223796</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="25" t="s">
+      <c r="A98" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.33994423535298784</v>
+        <v>0.34040176386472942</v>
       </c>
       <c r="C98">
         <v>-1.0051669274857655</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.0086388418258589</v>
+        <v>1.0086769222043053</v>
       </c>
       <c r="C99">
         <v>1.07799021243728</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="25" t="s">
+      <c r="A100" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.55827076753639837</v>
+        <v>0.55726202250035184</v>
       </c>
       <c r="C100">
         <v>-0.21430074892218995</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1.2771084590334767</v>
+        <v>1.2774265173113772</v>
       </c>
       <c r="C101">
         <v>1.0157438111343318</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="25" t="s">
+      <c r="A102" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B102">
-        <v>-0.42762171946548883</v>
+        <v>-0.42709716822887145</v>
       </c>
       <c r="C102">
         <v>0.86189829174979082</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B103">
-        <v>-0.53818592737157023</v>
+        <v>-0.53858506196112743</v>
       </c>
       <c r="C103">
         <v>-0.78671638676726852</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="25" t="s">
+      <c r="A104" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B104">
-        <v>-0.32061883571328037</v>
+        <v>-0.31979513996694636</v>
       </c>
       <c r="C104">
         <v>0.20001793247637425</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1.0097499488011896</v>
+        <v>1.0089674944704115</v>
       </c>
       <c r="C105">
         <v>-1.3554595193865808</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B106">
-        <v>-1.736025690938692</v>
+        <v>-1.7360467883629565</v>
       </c>
       <c r="C106">
         <v>-0.97442267795384119</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.4759052754232778</v>
+        <v>1.4752637513223792</v>
       </c>
       <c r="C107">
         <v>1.2291025016423498</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="25" t="s">
+      <c r="A108" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.97854611379817569</v>
+        <v>0.97775242094645687</v>
       </c>
       <c r="C108">
         <v>1.4358924212717996</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1.157046753499855</v>
+        <v>1.1571567505951337</v>
       </c>
       <c r="C109">
         <v>0.42378093836249853</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="25" t="s">
+      <c r="A110" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.32628405010622502</v>
+        <v>0.32626851744324831</v>
       </c>
       <c r="C110">
         <v>-0.87222146573381221</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.4185911066178696</v>
+        <v>1.4188328770535781</v>
       </c>
       <c r="C111">
         <v>1.2887579283350208</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="25" t="s">
+      <c r="A112" s="5" t="s">
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.2048186820247436</v>
+        <v>0.20563447359200077</v>
       </c>
       <c r="C112">
         <v>-1.1432460368661337</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B113">
-        <v>-0.62276265241893503</v>
+        <v>-0.62179418408595266</v>
       </c>
       <c r="C113">
         <v>-0.5478557062385192</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="25" t="s">
+      <c r="A114" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1.1259553987444899</v>
+        <v>1.1264456560300509</v>
       </c>
       <c r="C114">
         <v>0.611992176476295</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B115">
-        <v>-0.61226275298408139</v>
+        <v>-0.61279749813842521</v>
       </c>
       <c r="C115">
         <v>-1.2408537538050832</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B116">
-        <v>-0.45911186952625632</v>
+        <v>-0.45883486696271092</v>
       </c>
       <c r="C116">
         <v>-1.6237564008704382</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.25786382508184846</v>
+        <v>0.25718520304266634</v>
       </c>
       <c r="C117">
         <v>0.95691874612000483</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="25" t="s">
+      <c r="A118" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.7373656469446016</v>
+        <v>0.73721915124393267</v>
       </c>
       <c r="C118">
         <v>1.08484366027696</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B119">
-        <v>-0.20655231223830656</v>
+        <v>-0.20579148748870402</v>
       </c>
       <c r="C119">
         <v>0.11959789841586617</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="25" t="s">
+      <c r="A120" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.5813386299494292</v>
+        <v>0.58051692472721628</v>
       </c>
       <c r="C120">
         <v>1.154652167578341</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="25" t="s">
+      <c r="A121" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.73927006399673201</v>
+        <v>0.73909608487371936</v>
       </c>
       <c r="C121">
         <v>1.2930567737680354</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="25" t="s">
+      <c r="A122" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.77211209062876418</v>
+        <v>0.77102409353088719</v>
       </c>
       <c r="C122">
         <v>0.2834403627981133</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.60412965494505855</v>
+        <v>0.60412373010253728</v>
       </c>
       <c r="C123">
         <v>0.27285032743388893</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="25" t="s">
+      <c r="A124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B124">
-        <v>-0.020753624687411116</v>
+        <v>-0.021054778615004103</v>
       </c>
       <c r="C124">
         <v>-1.2789156199606064</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="25" t="s">
+      <c r="A125" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B125">
-        <v>-1.0318300963720337</v>
+        <v>-1.0308075902232849</v>
       </c>
       <c r="C125">
         <v>-1.5620749149688584</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="25" t="s">
+      <c r="A126" s="5" t="s">
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.3298697353885927</v>
+        <v>1.3297331228938729</v>
       </c>
       <c r="C126">
         <v>1.300803729850176</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="5" t="s">
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.12320694561769133</v>
+        <v>0.12283422943456772</v>
       </c>
       <c r="C127">
         <v>-0.56608928055318453</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="25" t="s">
+      <c r="A128" s="5" t="s">
         <v>127</v>
       </c>
       <c r="B128">
-        <v>-1.7231049294493279</v>
+        <v>-1.7231935481253524</v>
       </c>
       <c r="C128">
         <v>-1.6694848405722977</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="25" t="s">
+      <c r="A129" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B129">
-        <v>-1.3173906367512911</v>
+        <v>-1.3173916445523921</v>
       </c>
       <c r="C129">
         <v>-0.35287020769019767</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="25" t="s">
+      <c r="A130" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.68418562890160695</v>
+        <v>0.68433430125041983</v>
       </c>
       <c r="C130">
         <v>0.53866081258516185</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.94952557116741187</v>
+        <v>0.94963248228553965</v>
       </c>
       <c r="C131">
         <v>1.3035074312892208</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="25" t="s">
+      <c r="A132" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B132">
-        <v>-0.021842755597931227</v>
+        <v>-0.022044741202166446</v>
       </c>
       <c r="C132">
         <v>1.1132297825234818</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="25" t="s">
+      <c r="A133" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.72740623870547205</v>
+        <v>0.72736324717961931</v>
       </c>
       <c r="C133">
         <v>0.80498783301139132</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="25" t="s">
+      <c r="A134" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B134">
-        <v>-0.95911952300715098</v>
+        <v>-0.95804100244442691</v>
       </c>
       <c r="C134">
         <v>-1.2859389871648321</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B135">
-        <v>-0.11774386934107806</v>
+        <v>-0.11741399576084909</v>
       </c>
       <c r="C135">
         <v>0.41629489786814788</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.57503677785124441</v>
+        <v>0.57549378979923105</v>
       </c>
       <c r="C136">
         <v>0.14888924132111081</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="25" t="s">
+      <c r="A137" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B137">
-        <v>-0.37037498582561018</v>
+        <v>-0.37101165623440335</v>
       </c>
       <c r="C137">
         <v>1.1481982479798949</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="5" t="s">
         <v>137</v>
       </c>
       <c r="B138">
-        <v>-0.046626397352581693</v>
+        <v>-0.045736308052274501</v>
       </c>
       <c r="C138">
         <v>1.1614971939232861</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B139">
-        <v>-0.23483416405245225</v>
+        <v>-0.23465704209056795</v>
       </c>
       <c r="C139">
         <v>1.076027156530166</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="25" t="s">
+      <c r="A140" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1.0644331629730586</v>
+        <v>1.064439905302953</v>
       </c>
       <c r="C140">
         <v>-0.30144486168568441</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="25" t="s">
+      <c r="A141" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B141">
-        <v>-0.56674974213432683</v>
+        <v>-0.56779664884917314</v>
       </c>
       <c r="C141">
         <v>0.083510726285044287</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="25" t="s">
+      <c r="A142" s="5" t="s">
         <v>141</v>
       </c>
       <c r="B142">
-        <v>-0.62747510830196707</v>
+        <v>-0.62811916346193331</v>
       </c>
       <c r="C142">
         <v>-0.74599996651052403</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.36153558854036855</v>
+        <v>0.36212021881780287</v>
       </c>
       <c r="C143">
         <v>0.15197135878052093</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="25" t="s">
+      <c r="A144" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.76600384412811406</v>
+        <v>0.76555928586327371</v>
       </c>
       <c r="C144">
         <v>-0.0020908826621061473</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="25" t="s">
+      <c r="A145" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B145">
-        <v>-0.17294579318282527</v>
+        <v>-0.17317774442199377</v>
       </c>
       <c r="C145">
         <v>-0.7143076325910479</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="25" t="s">
+      <c r="A146" s="5" t="s">
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.5046478625833812</v>
+        <v>1.5043909588316671</v>
       </c>
       <c r="C146">
         <v>0.82781458975488964</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="25" t="s">
+      <c r="A147" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B147">
-        <v>-0.23989012652398675</v>
+        <v>-0.24089404401135353</v>
       </c>
       <c r="C147">
         <v>-1.2024537788545295</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="25" t="s">
+      <c r="A148" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B148">
-        <v>-0.74351089786787405</v>
+        <v>-0.74345872783176703</v>
       </c>
       <c r="C148">
         <v>1.1090549487447763</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="25" t="s">
+      <c r="A149" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>-0.93045652696957559</v>
+        <v>-0.93063844305578336</v>
       </c>
       <c r="C149">
         <v>-0.24840429281936915</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B150">
-        <v>-0.75093359047105623</v>
+        <v>-0.75074933766286478</v>
       </c>
       <c r="C150">
         <v>0.90435200373828084</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="25" t="s">
+      <c r="A151" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B151">
-        <v>-0.77598558280907215</v>
+        <v>-0.77542036480724408</v>
       </c>
       <c r="C151">
         <v>-1.271034115916609</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="25" t="s">
+      <c r="A152" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.54248762407382101</v>
+        <v>0.54201689563368405</v>
       </c>
       <c r="C152">
         <v>0.68132184065236956</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="25" t="s">
+      <c r="A153" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1.076549843628982</v>
+        <v>1.0764246185202588</v>
       </c>
       <c r="C153">
         <v>1.4422590486277318</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="25" t="s">
+      <c r="A154" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1.3011283662496786</v>
+        <v>1.3012690866580852</v>
       </c>
       <c r="C154">
         <v>1.3110634656870745</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="25" t="s">
+      <c r="A155" s="5" t="s">
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.49323489032851442</v>
+        <v>0.49329906966147008</v>
       </c>
       <c r="C155">
         <v>-1.2660736068367695</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="25" t="s">
+      <c r="A156" s="5" t="s">
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.80202805077965356</v>
+        <v>0.80188053618124833</v>
       </c>
       <c r="C156">
         <v>-0.3516088975029511</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="25" t="s">
+      <c r="A157" s="5" t="s">
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.53505270012724138</v>
+        <v>0.53601253486352141</v>
       </c>
       <c r="C157">
         <v>1.2111625170562772</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="25" t="s">
+      <c r="A158" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B158">
-        <v>-1.0624778598942455</v>
+        <v>-1.061530847385344</v>
       </c>
       <c r="C158">
         <v>-0.89826878163990476</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="25" t="s">
+      <c r="A159" s="5" t="s">
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.1944064276997314</v>
+        <v>0.19547302909305456</v>
       </c>
       <c r="C159">
         <v>0.56036519319646216</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="25" t="s">
+      <c r="A160" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B160">
-        <v>-0.084985027629265394</v>
+        <v>-0.084166651939344653</v>
       </c>
       <c r="C160">
         <v>0.94636435626634641</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="25" t="s">
+      <c r="A161" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.8049521338060045</v>
+        <v>0.80458834311288907</v>
       </c>
       <c r="C161">
         <v>1.4446585353261907</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="25" t="s">
+      <c r="A162" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B162">
-        <v>1.0478860366439087</v>
+        <v>1.0475026293145393</v>
       </c>
       <c r="C162">
         <v>0.23642340135285783</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="25" t="s">
+      <c r="A163" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B163">
-        <v>-1.2270396964809036</v>
+        <v>-1.2278952267035266</v>
       </c>
       <c r="C163">
         <v>-1.1742753564591821</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="25" t="s">
+      <c r="A164" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B164">
-        <v>1.2030981203338706</v>
+        <v>1.2032326615576476</v>
       </c>
       <c r="C164">
         <v>0.7441776464730111</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="25" t="s">
+      <c r="A165" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0.82851214011032948</v>
+        <v>0.828825346016552</v>
       </c>
       <c r="C165">
         <v>0.80997155144133082</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="25" t="s">
+      <c r="A166" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B166">
-        <v>0.9675737992192599</v>
+        <v>0.96782007248487656</v>
       </c>
       <c r="C166">
         <v>-1.0443205868469305</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="25" t="s">
+      <c r="A167" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B167">
-        <v>-1.7989945107412033</v>
+        <v>-1.7987367226511159</v>
       </c>
       <c r="C167">
         <v>-1.7327448525889955</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="25" t="s">
+      <c r="A168" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B168">
-        <v>-1.1017331156178169</v>
+        <v>-1.1015508952309017</v>
       </c>
       <c r="C168">
         <v>-0.81991515043789309</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="25" t="s">
+      <c r="A169" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B169">
-        <v>-1.3893300302609628</v>
+        <v>-1.3895515393150395</v>
       </c>
       <c r="C169">
         <v>-1.3380532466824551</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="25" t="s">
+      <c r="A170" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B170">
-        <v>0.87530749637503413</v>
+        <v>0.87499008814457879</v>
       </c>
       <c r="C170">
         <v>1.3579120061609502</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="25" t="s">
+      <c r="A171" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0.9584912295136977</v>
+        <v>0.95863569310686725</v>
       </c>
       <c r="C171">
         <v>0.8416441017527444</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="25" t="s">
+      <c r="A172" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B172">
-        <v>0.63745737150015691</v>
+        <v>0.63754796049696238</v>
       </c>
       <c r="C172">
         <v>-0.40341764180650586</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="25" t="s">
+      <c r="A173" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B173">
-        <v>-1.2476452828043072</v>
+        <v>-1.2468523356042569</v>
       </c>
       <c r="C173">
         <v>-1.042955602962814</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="25" t="s">
+      <c r="A174" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B174">
-        <v>-0.29995374526515467</v>
+        <v>-0.29997215276944894</v>
       </c>
       <c r="C174">
         <v>-0.70213666460419244</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="25" t="s">
+      <c r="A175" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B175">
-        <v>-0.69056425188309356</v>
+        <v>-0.69125095022177163</v>
       </c>
       <c r="C175">
         <v>-0.50187613063426018</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="25" t="s">
+      <c r="A176" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0.87133052061554006</v>
+        <v>0.87145369466363787</v>
       </c>
       <c r="C176">
         <v>0.42259193490275654</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="25" t="s">
+      <c r="A177" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B177">
-        <v>-0.23562260886951644</v>
+        <v>-0.23540905956716682</v>
       </c>
       <c r="C177">
         <v>0.029923720025197754</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="25" t="s">
+      <c r="A178" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B178">
-        <v>-0.93302759629395282</v>
+        <v>-0.93334742960483008</v>
       </c>
       <c r="C178">
         <v>-0.85774497666229677</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="25" t="s">
+      <c r="A179" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B179">
-        <v>-0.25720826705496475</v>
+        <v>-0.25695157573387795</v>
       </c>
       <c r="C179">
         <v>-0.38715982508311897</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="25" t="s">
+      <c r="A180" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B180">
-        <v>-1.3221328096392795</v>
+        <v>-1.3217501436714458</v>
       </c>
       <c r="C180">
         <v>-1.4484681142627489</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="25" t="s">
+      <c r="A181" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B181">
-        <v>-0.94039659631264372</v>
+        <v>-0.94059056611436154</v>
       </c>
       <c r="C181">
         <v>-1.5766927279555834</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="25" t="s">
+      <c r="A182" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B182">
-        <v>-1.3216226718688644</v>
+        <v>-1.3228130518008476</v>
       </c>
       <c r="C182">
         <v>-1.6506459673385576</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="25" t="s">
+      <c r="A183" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B183">
-        <v>-0.081230967270533069</v>
+        <v>-0.081633353364518921</v>
       </c>
       <c r="C183">
         <v>-0.0030409569708747144</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="25" t="s">
+      <c r="A184" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B184">
-        <v>-0.16174488248629457</v>
+        <v>-0.16078593463039326</v>
       </c>
       <c r="C184">
         <v>-1.0963015687911219</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="25" t="s">
+      <c r="A185" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B185">
-        <v>-1.0665489581969605</v>
+        <v>-1.0656737004436632</v>
       </c>
       <c r="C185">
         <v>0.25205390838395286</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="25" t="s">
+      <c r="A186" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B186">
-        <v>0.51027043943114847</v>
+        <v>0.51108499053699918</v>
       </c>
       <c r="C186">
         <v>-1.137814502690915</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="25" t="s">
+      <c r="A187" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B187">
-        <v>0.5201480113933894</v>
+        <v>0.52073534133333754</v>
       </c>
       <c r="C187">
         <v>1.249219016375879</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="25" t="s">
+      <c r="A188" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0.12356239171561752</v>
+        <v>0.12384749430462316</v>
       </c>
       <c r="C188">
         <v>0.43041838458398429</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="25" t="s">
+      <c r="A189" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B189">
-        <v>-1.402674466153595</v>
+        <v>-1.4029220800926026</v>
       </c>
       <c r="C189">
         <v>0.9050198164259976</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="25" t="s">
+      <c r="A190" s="5" t="s">
         <v>189</v>
       </c>
       <c r="B190">
-        <v>0.66724535796630924</v>
+        <v>0.66732847397065087</v>
       </c>
       <c r="C190">
         <v>-0.058704503491754961</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="25" t="s">
+      <c r="A191" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B191">
-        <v>0.93232200580775937</v>
+        <v>0.93223168563590852</v>
       </c>
       <c r="C191">
         <v>-0.91620791192982731</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="25" t="s">
+      <c r="A192" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B192">
-        <v>-1.0119512403300237</v>
+        <v>-1.0117991521593237</v>
       </c>
       <c r="C192">
         <v>-1.3031603305922035</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="25" t="s">
+      <c r="A193" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B193">
-        <v>1.0935252159946331</v>
+        <v>1.0931253418785845</v>
       </c>
       <c r="C193">
         <v>1.1946752355767454</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="25" t="s">
+      <c r="A194" s="5" t="s">
         <v>193</v>
       </c>
       <c r="B194">
-        <v>1.1659525129145663</v>
+        <v>1.1661327576025302</v>
       </c>
       <c r="C194">
         <v>0.80251446734442455</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="25" t="s">
+      <c r="A195" s="5" t="s">
         <v>194</v>
       </c>
       <c r="B195">
-        <v>0.82401455600194295</v>
+        <v>0.82434586090602591</v>
       </c>
       <c r="C195">
         <v>0.98748316750999865</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="25" t="s">
+      <c r="A196" s="5" t="s">
         <v>195</v>
       </c>
       <c r="B196">
-        <v>-1.5744627211157325</v>
+        <v>-1.5747627491462484</v>
       </c>
       <c r="C196">
         <v>-0.87246291006084198</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="25" t="s">
+      <c r="A197" s="5" t="s">
         <v>196</v>
       </c>
       <c r="B197">
-        <v>-1.4104269857861758</v>
+        <v>-1.4112647519185073</v>
       </c>
       <c r="C197">
         <v>-1.0946389549523681</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="25" t="s">
+      <c r="A198" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B198">
-        <v>0.60988982852573992</v>
+        <v>0.60924022896792673</v>
       </c>
       <c r="C198">
         <v>1.1872789371327437</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="25" t="s">
+      <c r="A199" s="5" t="s">
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.3829407495025023</v>
+        <v>1.3828555569398235</v>
       </c>
       <c r="C199">
         <v>0.56068062171408561</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="25" t="s">
+      <c r="A200" s="5" t="s">
         <v>199</v>
       </c>
       <c r="B200">
-        <v>-1.6296098550947986</v>
+        <v>-1.6298046941968898</v>
       </c>
       <c r="C200">
         <v>-0.51782554363062416</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="25" t="s">
+      <c r="A201" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B201">
-        <v>-0.70055878842394514</v>
+        <v>-0.70056573060336658</v>
       </c>
       <c r="C201">
         <v>-0.6601662811562834</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="25" t="s">
+      <c r="A202" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B202">
-        <v>0.48354380048050782</v>
+        <v>0.4830864052268572</v>
       </c>
       <c r="C202">
         <v>0.27857056056604057</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B203">
-        <v>0.55036110503002811</v>
+        <v>0.55136996673936356</v>
       </c>
       <c r="C203">
         <v>-0.08512483919975683</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="25" t="s">
+      <c r="A204" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0.4378178675525688</v>
+        <v>0.43724141173255421</v>
       </c>
       <c r="C204">
         <v>-1.1708206744808289</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="25" t="s">
+      <c r="A205" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B205">
-        <v>0.51760059038500894</v>
+        <v>0.51856581806191571</v>
       </c>
       <c r="C205">
         <v>0.72540642311041892</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="25" t="s">
+      <c r="A206" s="5" t="s">
         <v>205</v>
       </c>
       <c r="B206">
-        <v>-0.26282118990943371</v>
+        <v>-0.26237601200986038</v>
       </c>
       <c r="C206">
         <v>-0.033668383258063192</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="25" t="s">
+      <c r="A207" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B207">
-        <v>-1.1221933322089874</v>
+        <v>-1.1220112109911251</v>
       </c>
       <c r="C207">
         <v>-1.0871554004774049</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="25" t="s">
+      <c r="A208" s="5" t="s">
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.3476491497972072</v>
+        <v>1.3478746157087635</v>
       </c>
       <c r="C208">
         <v>0.15158993128117393</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="25" t="s">
+      <c r="A209" s="5" t="s">
         <v>208</v>
       </c>
       <c r="B209">
-        <v>-2.1265115017249516</v>
+        <v>-2.126489987162925</v>
       </c>
       <c r="C209">
         <v>-0.37287097296776528</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="25" t="s">
+      <c r="A210" s="5" t="s">
         <v>209</v>
       </c>
       <c r="B210">
-        <v>0.24604938989617109</v>
+        <v>0.24565002701915464</v>
       </c>
       <c r="C210">
         <v>0.16045117051584024</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="25" t="s">
+      <c r="A211" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B211">
-        <v>-1.0160395895206684</v>
+        <v>-1.0155681126854283</v>
       </c>
       <c r="C211">
         <v>-1.3286635771146706</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="25" t="s">
+      <c r="A212" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.2845207581666838</v>
+        <v>1.2844370916687982</v>
       </c>
       <c r="C212">
         <v>0.84025977542583274</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="25" t="s">
+      <c r="A213" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B213">
-        <v>0.58278918816101666</v>
+        <v>0.58199177793941492</v>
       </c>
       <c r="C213">
         <v>0.21633652469156683</v>
